--- a/datasets/2022.xlsx
+++ b/datasets/2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\NIRFRankPredictor\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C41A77-F31E-499B-9C52-1F46156DA917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F02321-7710-4C39-85E4-8C1EBEB97A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2B26A4D-5451-44E4-8799-01E57B0BF26C}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>IR-E-U-0456</t>
   </si>
   <si>
-    <t>Indian Institute of Technology MadrasMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>IR-E-I-1074</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, DelhiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>New Delhi</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>IR-E-U-0306</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, BombayMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>IR-E-I-1075</t>
   </si>
   <si>
-    <t>Indian Institute of Technology KanpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Kanpur</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>IR-E-U-0573</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, KharagpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Kharagpur</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t>IR-E-U-0560</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, RoorkeeMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Roorkee</t>
   </si>
   <si>
@@ -142,9 +124,6 @@
     <t>IR-E-U-0053</t>
   </si>
   <si>
-    <t>Indian Institute of Technology GuwahatiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Guwahati</t>
   </si>
   <si>
@@ -154,18 +133,12 @@
     <t>IR-E-U-0467</t>
   </si>
   <si>
-    <t>National Institute of Technology, TiruchirappalliMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Tiruchirappalli</t>
   </si>
   <si>
     <t>IR-E-U-0013</t>
   </si>
   <si>
-    <t>Indian Institute of Technology HyderabadMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -175,9 +148,6 @@
     <t>IR-E-U-0237</t>
   </si>
   <si>
-    <t>National Institute of Technology Karnataka, Surathkal More DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Surathkal</t>
   </si>
   <si>
@@ -187,36 +157,24 @@
     <t>IR-E-U-0575</t>
   </si>
   <si>
-    <t>Jadavpur UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Kolkata</t>
   </si>
   <si>
     <t>IR-E-U-0490</t>
   </si>
   <si>
-    <t>Vellore Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Vellore</t>
   </si>
   <si>
     <t>IR-E-U-0701</t>
   </si>
   <si>
-    <t>Indian Institute of Technology (Banaras Hindu University) VaranasiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Varanasi</t>
   </si>
   <si>
     <t>IR-E-U-0205</t>
   </si>
   <si>
-    <t>Indian Institute of Technology (Indian School of Mines)More DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Dhanbad</t>
   </si>
   <si>
@@ -226,9 +184,6 @@
     <t>IR-E-U-0357</t>
   </si>
   <si>
-    <t>National Institute of Technology RourkelaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Rourkela</t>
   </si>
   <si>
@@ -238,9 +193,6 @@
     <t>IR-E-U-0273</t>
   </si>
   <si>
-    <t>Indian Institute of Technology IndoreMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Indore</t>
   </si>
   <si>
@@ -250,30 +202,18 @@
     <t>IR-E-U-0439</t>
   </si>
   <si>
-    <t>Anna UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0308</t>
   </si>
   <si>
-    <t>Institute of Chemical TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0436</t>
   </si>
   <si>
-    <t>Amrita Vishwa VidyapeethamMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Coimbatore</t>
   </si>
   <si>
     <t>IR-E-U-0184</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, MandiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Mandi</t>
   </si>
   <si>
@@ -283,18 +223,12 @@
     <t>IR-E-U-0025</t>
   </si>
   <si>
-    <t>National Institute of Technology WarangalMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Warangal</t>
   </si>
   <si>
     <t>IR-E-U-0378</t>
   </si>
   <si>
-    <t>Indian Institute of Technology RoparMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Rupnagar</t>
   </si>
   <si>
@@ -304,9 +238,6 @@
     <t>IR-E-U-0139</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, GandhinagarMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Gandhinagar</t>
   </si>
   <si>
@@ -316,48 +247,30 @@
     <t>IR-E-U-0473</t>
   </si>
   <si>
-    <t>S.R.M. Institute of Science and TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0497</t>
   </si>
   <si>
-    <t>Amity UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Gautam Budh Nagar</t>
   </si>
   <si>
     <t>IR-E-U-0108</t>
   </si>
   <si>
-    <t>Jamia Millia Islamia, New DelhiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0363</t>
   </si>
   <si>
-    <t>Siksha `O` AnusandhanMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Bhubaneswar</t>
   </si>
   <si>
     <t>IR-E-I-1480</t>
   </si>
   <si>
-    <t>Thapar Institute of Engineering and TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Patiala</t>
   </si>
   <si>
     <t>IR-E-U-0391</t>
   </si>
   <si>
-    <t>Birla Institute of Technology &amp; Science - PilaniMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Pilani</t>
   </si>
   <si>
@@ -367,18 +280,12 @@
     <t>IR-E-U-0395</t>
   </si>
   <si>
-    <t>Indian Institute of Technology JodhpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Jodhpur</t>
   </si>
   <si>
     <t>IR-E-U-0263</t>
   </si>
   <si>
-    <t>National Institute of Technology, CalicutMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Kozhikode</t>
   </si>
   <si>
@@ -388,18 +295,12 @@
     <t>IR-E-U-0334</t>
   </si>
   <si>
-    <t>Visvesvaraya National Institute of Technology, NagpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Nagpur</t>
   </si>
   <si>
     <t>IR-E-U-0064</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, PatnaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Patna</t>
   </si>
   <si>
@@ -409,93 +310,60 @@
     <t>IR-E-U-0577</t>
   </si>
   <si>
-    <t>National Institute of Technology DurgapurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Durgapur</t>
   </si>
   <si>
     <t>IR-E-U-0098</t>
   </si>
   <si>
-    <t>Delhi Technological UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0355</t>
   </si>
   <si>
-    <t>Indian Institute of Technology BhubaneswarMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0496</t>
   </si>
   <si>
-    <t>Aligarh Muslim UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Aligarh</t>
   </si>
   <si>
     <t>IR-E-U-0055</t>
   </si>
   <si>
-    <t>National Institute of Technology, SilcharMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Silchar</t>
   </si>
   <si>
     <t>IR-E-U-0458</t>
   </si>
   <si>
-    <t>Kalasalingam Academy of Research and EducationMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Srivilliputtur</t>
   </si>
   <si>
     <t>IR-E-U-0584</t>
   </si>
   <si>
-    <t>Indian Institute of Engineering Science and Technology, ShibpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>HOWRAH</t>
   </si>
   <si>
     <t>IR-E-U-0476</t>
   </si>
   <si>
-    <t>Shanmugha Arts Science Technology &amp; Research AcademyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Thanjavur</t>
   </si>
   <si>
     <t>IR-E-U-0356</t>
   </si>
   <si>
-    <t>Kalinga Institute of Industrial TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>BHUBANESWAR</t>
   </si>
   <si>
     <t>IR-E-U-0255</t>
   </si>
   <si>
-    <t>Indian Institute of Space Science and TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Thiruvananthapuram</t>
   </si>
   <si>
     <t>IR-E-U-0020</t>
   </si>
   <si>
-    <t>Koneru Lakshmaiah Education Foundation University (K L College of Engineering)More DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Vaddeswaram</t>
   </si>
   <si>
@@ -505,54 +373,36 @@
     <t>IR-E-U-0747</t>
   </si>
   <si>
-    <t>Chandigarh UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Mohali</t>
   </si>
   <si>
     <t>IR-E-U-0410</t>
   </si>
   <si>
-    <t>Malaviya National Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Jaipur</t>
   </si>
   <si>
     <t>IR-E-U-0530</t>
   </si>
   <si>
-    <t>Motilal Nehru National Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Prayagraj</t>
   </si>
   <si>
     <t>IR-E-C-16604</t>
   </si>
   <si>
-    <t>Sri Sivasubramaniya Nadar College of EngineeringMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Kancheepuram</t>
   </si>
   <si>
     <t>IR-E-U-0249</t>
   </si>
   <si>
-    <t>Visvesvaraya Technological UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Belgaum</t>
   </si>
   <si>
     <t>IR-E-U-0172</t>
   </si>
   <si>
-    <t>National Institute of Technology KurukshetraMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Kurukshetra</t>
   </si>
   <si>
@@ -562,84 +412,54 @@
     <t>IR-E-U-0379</t>
   </si>
   <si>
-    <t>Lovely Professional UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Phagwara</t>
   </si>
   <si>
     <t>IR-E-U-0374</t>
   </si>
   <si>
-    <t>Dr. B R Ambedkar National Institute of Technology, JalandharMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Jalandhar</t>
   </si>
   <si>
     <t>IR-E-U-0202</t>
   </si>
   <si>
-    <t>Birla Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Ranchi</t>
   </si>
   <si>
     <t>IR-E-U-0474</t>
   </si>
   <si>
-    <t>Sathyabama Institute of Science and TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-C-7252</t>
   </si>
   <si>
-    <t>Manipal Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Manipal</t>
   </si>
   <si>
     <t>IR-E-U-0844</t>
   </si>
   <si>
-    <t>Indian Institute of Technology, TirupatiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>YERPEDU</t>
   </si>
   <si>
     <t>IR-E-C-37013</t>
   </si>
   <si>
-    <t>PSG College of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0149</t>
   </si>
   <si>
-    <t>Sardar Vallabhbhai National Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Surat</t>
   </si>
   <si>
     <t>IR-E-U-0389</t>
   </si>
   <si>
-    <t>Banasthali VidyapithMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Banasthali</t>
   </si>
   <si>
     <t>IR-E-U-0619</t>
   </si>
   <si>
-    <t>National Institute of Technology MeghalayaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Shillong</t>
   </si>
   <si>
@@ -649,36 +469,21 @@
     <t>IR-E-U-0564</t>
   </si>
   <si>
-    <t>University of Petroleum and Energy StudiesMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Dehradun</t>
   </si>
   <si>
     <t>IR-E-U-0014</t>
   </si>
   <si>
-    <t>International Institute of Information Technology HyderabadMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0072</t>
   </si>
   <si>
-    <t>National Institute of Technology, PatnaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0555</t>
   </si>
   <si>
-    <t>Graphic Era UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0092</t>
   </si>
   <si>
-    <t>National Institute of Technology, RaipurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Raipur</t>
   </si>
   <si>
@@ -688,9 +493,6 @@
     <t>IR-E-U-0197</t>
   </si>
   <si>
-    <t>National Institute of Technology SrinagarMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Srinagar</t>
   </si>
   <si>
@@ -700,108 +502,66 @@
     <t>IR-E-C-1331</t>
   </si>
   <si>
-    <t>M. S. Ramaiah Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Bengaluru</t>
   </si>
   <si>
     <t>IR-E-U-0878</t>
   </si>
   <si>
-    <t>Indian Institute of Technology PalakkadMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Palakkad</t>
   </si>
   <si>
     <t>IR-E-U-0105</t>
   </si>
   <si>
-    <t>Indraprastha Institute of Information Technology DelhiMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0284</t>
   </si>
   <si>
-    <t>Maulana Azad National Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Bhopal</t>
   </si>
   <si>
     <t>IR-E-U-0297</t>
   </si>
   <si>
-    <t>Defence Institute of Advanced TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
     <t>IR-E-C-41593</t>
   </si>
   <si>
-    <t>College of Engineering, PuneMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-C-36995</t>
   </si>
   <si>
-    <t>Sri Krishna College of Engineering and TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0099</t>
   </si>
   <si>
-    <t>Guru Gobind Singh Indraprastha UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0749</t>
   </si>
   <si>
-    <t>Manipal University, JaipurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0017</t>
   </si>
   <si>
-    <t>Jawaharlal Nehru Technological UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-C-24004</t>
   </si>
   <si>
-    <t>AU College of Engineering (A)More DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Visakhapatnam</t>
   </si>
   <si>
     <t>IR-E-U-0267</t>
   </si>
   <si>
-    <t>Atal Bihari Vajpayee Indian Institute of Information Technology and ManagementMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Gwalior</t>
   </si>
   <si>
     <t>IR-E-C-6379</t>
   </si>
   <si>
-    <t>Netaji Subhas University of Technology (NSUT)More DetailsClose |  |</t>
-  </si>
-  <si>
     <t>South West</t>
   </si>
   <si>
     <t>IR-E-U-0493</t>
   </si>
   <si>
-    <t>National Institute of Technology AgartalaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Agratala</t>
   </si>
   <si>
@@ -811,60 +571,36 @@
     <t>IR-E-U-0221</t>
   </si>
   <si>
-    <t>International Institute of Information Technology BangaloreMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0286</t>
   </si>
   <si>
-    <t>Pandit Dwarka Prasad Mishra Indian Institute of Information Technology, Design and Manufacturing (IIITDM) JabalpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Jabalpur</t>
   </si>
   <si>
     <t>IR-E-C-1262</t>
   </si>
   <si>
-    <t>B.M.S. College of EngineeringMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0489</t>
   </si>
   <si>
-    <t>Vel Tech Rangarajan Dr. Sagunthala R &amp; D Institute of Science and TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-C-26794</t>
   </si>
   <si>
-    <t>Thiagarajar College of EngineeringMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Madurai</t>
   </si>
   <si>
     <t>IR-E-C-45375</t>
   </si>
   <si>
-    <t>National Institute of Food Technology, Entrepreneurship and Management - Thanjavur (NIFTEM - Thanjavur)More DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0080</t>
   </si>
   <si>
-    <t>Punjab Engineering College (Deemed to be University), ChandigarhMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Chandigarh</t>
   </si>
   <si>
     <t>IR-E-U-0620</t>
   </si>
   <si>
-    <t>National Institute of Technology GoaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Ponda</t>
   </si>
   <si>
@@ -874,91 +610,355 @@
     <t>IR-E-C-1269</t>
   </si>
   <si>
-    <t>R.V. College of EngineeringMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0207</t>
   </si>
   <si>
-    <t>National Institute of Technology, JamshedpurMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Jamshedpur</t>
   </si>
   <si>
     <t>IR-E-C-19754</t>
   </si>
   <si>
-    <t>SR UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0078</t>
   </si>
   <si>
-    <t>Panjab UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0516</t>
   </si>
   <si>
-    <t>Indian Institute of Information Technology AllahabadMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Prayagraj (Allahabad)</t>
   </si>
   <si>
     <t>IR-E-U-0522</t>
   </si>
   <si>
-    <t>Jaypee Institute of Information TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Noida</t>
   </si>
   <si>
     <t>IR-E-C-16626</t>
   </si>
   <si>
-    <t>Rajalakshmi Engineering CollegeMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0163</t>
   </si>
   <si>
-    <t>The Northcap UniversityMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Gurugram</t>
   </si>
   <si>
     <t>IR-E-C-1297</t>
   </si>
   <si>
-    <t>Siddaganga Institute of TechnologyMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Tumkur</t>
   </si>
   <si>
     <t>IR-E-C-30045</t>
   </si>
   <si>
-    <t>C.V. Raman Global University, OdishaMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>IR-E-U-0043</t>
   </si>
   <si>
-    <t>Vignan's Foundation for Science, Technology and ResearchMore DetailsClose |  |</t>
-  </si>
-  <si>
     <t>Guntur</t>
   </si>
   <si>
     <t>IR-E-U-0733</t>
   </si>
   <si>
-    <t>PES UniversityMore DetailsClose |  |</t>
+    <t>Indian Institute of Technology Madras</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Delhi</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Bombay</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Kanpur</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Kharagpur</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Roorkee</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Guwahati</t>
+  </si>
+  <si>
+    <t>National Institute of Technology, Tiruchirappalli</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Technology Karnataka, Surathkal </t>
+  </si>
+  <si>
+    <t>Jadavpur University</t>
+  </si>
+  <si>
+    <t>Vellore Institute of Technology</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology (Banaras Hindu University) Varanasi</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology (Indian School of Mines)</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Rourkela</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Indore</t>
+  </si>
+  <si>
+    <t>Anna University</t>
+  </si>
+  <si>
+    <t>Institute of Chemical Technology</t>
+  </si>
+  <si>
+    <t>Amrita Vishwa Vidyapeetham</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Mandi</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Warangal</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Ropar</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Gandhinagar</t>
+  </si>
+  <si>
+    <t>S.R.M. Institute of Science and Technology</t>
+  </si>
+  <si>
+    <t>Amity University</t>
+  </si>
+  <si>
+    <t>Jamia Millia Islamia, New Delhi</t>
+  </si>
+  <si>
+    <t>Siksha `O` Anusandhan</t>
+  </si>
+  <si>
+    <t>Thapar Institute of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Birla Institute of Technology &amp; Science - Pilani</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Jodhpur</t>
+  </si>
+  <si>
+    <t>National Institute of Technology, Calicut</t>
+  </si>
+  <si>
+    <t>Visvesvaraya National Institute of Technology, Nagpur</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Patna</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Durgapur</t>
+  </si>
+  <si>
+    <t>Delhi Technological University</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Aligarh Muslim University</t>
+  </si>
+  <si>
+    <t>National Institute of Technology, Silchar</t>
+  </si>
+  <si>
+    <t>Kalasalingam Academy of Research and Education</t>
+  </si>
+  <si>
+    <t>Indian Institute of Engineering Science and Technology, Shibpur</t>
+  </si>
+  <si>
+    <t>Shanmugha Arts Science Technology &amp; Research Academy</t>
+  </si>
+  <si>
+    <t>Kalinga Institute of Industrial Technology</t>
+  </si>
+  <si>
+    <t>Indian Institute of Space Science and Technology</t>
+  </si>
+  <si>
+    <t>Koneru Lakshmaiah Education Foundation University (K L College of Engineering)</t>
+  </si>
+  <si>
+    <t>Chandigarh University</t>
+  </si>
+  <si>
+    <t>Malaviya National Institute of Technology</t>
+  </si>
+  <si>
+    <t>Motilal Nehru National Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sri Sivasubramaniya Nadar College of Engineering</t>
+  </si>
+  <si>
+    <t>Visvesvaraya Technological University</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Kurukshetra</t>
+  </si>
+  <si>
+    <t>Lovely Professional University</t>
+  </si>
+  <si>
+    <t>Dr. B R Ambedkar National Institute of Technology, Jalandhar</t>
+  </si>
+  <si>
+    <t>Birla Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sathyabama Institute of Science and Technology</t>
+  </si>
+  <si>
+    <t>Manipal Institute of Technology</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Tirupati</t>
+  </si>
+  <si>
+    <t>PSG College of Technology</t>
+  </si>
+  <si>
+    <t>Sardar Vallabhbhai National Institute of Technology</t>
+  </si>
+  <si>
+    <t>Banasthali Vidyapith</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Meghalaya</t>
+  </si>
+  <si>
+    <t>University of Petroleum and Energy Studies</t>
+  </si>
+  <si>
+    <t>International Institute of Information Technology Hyderabad</t>
+  </si>
+  <si>
+    <t>National Institute of Technology, Patna</t>
+  </si>
+  <si>
+    <t>Graphic Era University</t>
+  </si>
+  <si>
+    <t>National Institute of Technology, Raipur</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Srinagar</t>
+  </si>
+  <si>
+    <t>M. S. Ramaiah Institute of Technology</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology Palakkad</t>
+  </si>
+  <si>
+    <t>Indraprastha Institute of Information Technology Delhi</t>
+  </si>
+  <si>
+    <t>Maulana Azad National Institute of Technology</t>
+  </si>
+  <si>
+    <t>Defence Institute of Advanced Technology</t>
+  </si>
+  <si>
+    <t>College of Engineering, Pune</t>
+  </si>
+  <si>
+    <t>Sri Krishna College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Guru Gobind Singh Indraprastha University</t>
+  </si>
+  <si>
+    <t>Manipal University, Jaipur</t>
+  </si>
+  <si>
+    <t>Jawaharlal Nehru Technological University</t>
+  </si>
+  <si>
+    <t>AU College of Engineering (A)</t>
+  </si>
+  <si>
+    <t>Atal Bihari Vajpayee Indian Institute of Information Technology and Management</t>
+  </si>
+  <si>
+    <t>Netaji Subhas University of Technology (NSUT)</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Agartala</t>
+  </si>
+  <si>
+    <t>International Institute of Information Technology Bangalore</t>
+  </si>
+  <si>
+    <t>Pandit Dwarka Prasad Mishra Indian Institute of Information Technology, Design and Manufacturing (IIITDM) Jabalpur</t>
+  </si>
+  <si>
+    <t>B.M.S. College of Engineering</t>
+  </si>
+  <si>
+    <t>Vel Tech Rangarajan Dr. Sagunthala R &amp; D Institute of Science and Technology</t>
+  </si>
+  <si>
+    <t>Thiagarajar College of Engineering</t>
+  </si>
+  <si>
+    <t>National Institute of Food Technology, Entrepreneurship and Management - Thanjavur (NIFTEM - Thanjavur)</t>
+  </si>
+  <si>
+    <t>Punjab Engineering College (Deemed to be University), Chandigarh</t>
+  </si>
+  <si>
+    <t>National Institute of Technology Goa</t>
+  </si>
+  <si>
+    <t>R.V. College of Engineering</t>
+  </si>
+  <si>
+    <t>National Institute of Technology, Jamshedpur</t>
+  </si>
+  <si>
+    <t>SR University</t>
+  </si>
+  <si>
+    <t>Panjab University</t>
+  </si>
+  <si>
+    <t>Indian Institute of Information Technology Allahabad</t>
+  </si>
+  <si>
+    <t>Jaypee Institute of Information Technology</t>
+  </si>
+  <si>
+    <t>Rajalakshmi Engineering College</t>
+  </si>
+  <si>
+    <t>The Northcap University</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology</t>
+  </si>
+  <si>
+    <t>C.V. Raman Global University, Odisha</t>
+  </si>
+  <si>
+    <t>Vignan's Foundation for Science, Technology and Research</t>
+  </si>
+  <si>
+    <t>PES University</t>
   </si>
 </sst>
 </file>
@@ -994,9 +994,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,7 +1345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1356,7 +1355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7360A-97A5-404D-AA7F-C1A6994789FE}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1389,17 +1390,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>90.04</v>
@@ -1409,17 +1410,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>88.12</v>
@@ -1429,17 +1430,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E4">
         <v>83.96</v>
@@ -1449,17 +1450,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5">
         <v>82.56</v>
@@ -1469,17 +1470,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
       <c r="E6">
         <v>78.89</v>
@@ -1489,17 +1490,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>76.7</v>
@@ -1509,17 +1510,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8">
         <v>72.98</v>
@@ -1529,17 +1530,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
       <c r="E9">
         <v>69.17</v>
@@ -1549,17 +1550,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
       <c r="E10">
         <v>68.03</v>
@@ -1569,17 +1570,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
       </c>
       <c r="E11">
         <v>66.040000000000006</v>
@@ -1589,17 +1590,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12">
         <v>65.680000000000007</v>
@@ -1609,17 +1610,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
       <c r="E13">
         <v>65.53</v>
@@ -1629,17 +1630,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
       </c>
       <c r="E14">
         <v>63.51</v>
@@ -1649,17 +1650,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
       </c>
       <c r="E15">
         <v>63.5</v>
@@ -1669,17 +1670,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
       </c>
       <c r="E16">
         <v>62.36</v>
@@ -1689,17 +1690,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
       </c>
       <c r="E17">
         <v>61.68</v>
@@ -1709,17 +1710,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E18">
         <v>61.41</v>
@@ -1729,17 +1730,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
       </c>
       <c r="E19">
         <v>61.4</v>
@@ -1749,17 +1750,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
       </c>
       <c r="E20">
         <v>60.92</v>
@@ -1769,17 +1770,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
       </c>
       <c r="E21">
         <v>60.43</v>
@@ -1789,17 +1790,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
       </c>
       <c r="E22">
         <v>60</v>
@@ -1809,17 +1810,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
       </c>
       <c r="E23">
         <v>59.16</v>
@@ -1829,17 +1830,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
       </c>
       <c r="E24">
         <v>58.27</v>
@@ -1849,17 +1850,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E25">
         <v>58.02</v>
@@ -1869,17 +1870,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
       </c>
       <c r="E26">
         <v>57.73</v>
@@ -1889,17 +1890,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
       </c>
       <c r="E27">
         <v>57.51</v>
@@ -1909,17 +1910,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>61</v>
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
       </c>
       <c r="E28">
         <v>57.48</v>
@@ -1929,17 +1930,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>83</v>
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
       </c>
       <c r="E29">
         <v>57.18</v>
@@ -1949,17 +1950,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>104</v>
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
       </c>
       <c r="E30">
         <v>56.9</v>
@@ -1969,17 +1970,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>104</v>
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
       </c>
       <c r="E31">
         <v>56.7</v>
@@ -1989,17 +1990,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>111</v>
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
       </c>
       <c r="E32">
         <v>56.66</v>
@@ -2009,17 +2010,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
       </c>
       <c r="E33">
         <v>56.62</v>
@@ -2029,17 +2030,17 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>118</v>
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
       </c>
       <c r="E34">
         <v>56.19</v>
@@ -2049,17 +2050,17 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>25</v>
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
       </c>
       <c r="E35">
         <v>55.76</v>
@@ -2069,17 +2070,17 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
       </c>
       <c r="E36">
         <v>55.65</v>
@@ -2089,17 +2090,17 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>61</v>
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
       </c>
       <c r="E37">
         <v>55.11</v>
@@ -2109,17 +2110,17 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
       </c>
       <c r="E38">
         <v>54.7</v>
@@ -2129,17 +2130,17 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
       </c>
       <c r="E39">
         <v>54.63</v>
@@ -2149,17 +2150,17 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
       </c>
       <c r="E40">
         <v>54.62</v>
@@ -2169,17 +2170,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>25</v>
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
       </c>
       <c r="E41">
         <v>54.57</v>
@@ -2189,17 +2190,17 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
       </c>
       <c r="E42">
         <v>53.36</v>
@@ -2209,17 +2210,17 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>61</v>
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
       </c>
       <c r="E43">
         <v>53.06</v>
@@ -2229,17 +2230,17 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
       </c>
       <c r="E44">
         <v>52.37</v>
@@ -2249,17 +2250,17 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>150</v>
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
       </c>
       <c r="E45">
         <v>51.93</v>
@@ -2269,17 +2270,17 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>83</v>
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
       </c>
       <c r="E46">
         <v>51.73</v>
@@ -2289,17 +2290,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>104</v>
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
       </c>
       <c r="E47">
         <v>51.69</v>
@@ -2309,17 +2310,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>21</v>
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
       </c>
       <c r="E48">
         <v>51.17</v>
@@ -2329,17 +2330,17 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
       </c>
       <c r="E49">
         <v>50.5</v>
@@ -2349,17 +2350,17 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>44</v>
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
       </c>
       <c r="E50">
         <v>50.2</v>
@@ -2369,17 +2370,17 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>169</v>
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
       </c>
       <c r="E51">
         <v>50.11</v>
@@ -2389,17 +2390,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>83</v>
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
       </c>
       <c r="E52">
         <v>49.58</v>
@@ -2409,17 +2410,17 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>83</v>
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
       </c>
       <c r="E53">
         <v>49.45</v>
@@ -2429,17 +2430,17 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>57</v>
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
       </c>
       <c r="E54">
         <v>49.33</v>
@@ -2449,17 +2450,17 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
         <v>8</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E55">
         <v>48.56</v>
@@ -2469,17 +2470,17 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>44</v>
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
       </c>
       <c r="E56">
         <v>48.33</v>
@@ -2489,17 +2490,17 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>150</v>
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
       </c>
       <c r="E57">
         <v>48.16</v>
@@ -2509,17 +2510,17 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
       </c>
       <c r="E58">
         <v>47.68</v>
@@ -2529,17 +2530,17 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>87</v>
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
       </c>
       <c r="E59">
         <v>47.61</v>
@@ -2549,17 +2550,17 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>104</v>
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
       </c>
       <c r="E60">
         <v>47</v>
@@ -2569,17 +2570,17 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>198</v>
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
       </c>
       <c r="E61">
         <v>46.67</v>
@@ -2589,17 +2590,17 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>29</v>
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
       </c>
       <c r="E62">
         <v>46.43</v>
@@ -2609,17 +2610,17 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>40</v>
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
       </c>
       <c r="E63">
         <v>46.41</v>
@@ -2629,17 +2630,17 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>118</v>
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
       </c>
       <c r="E64">
         <v>46.24</v>
@@ -2649,17 +2650,17 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>29</v>
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
       </c>
       <c r="E65">
         <v>45.87</v>
@@ -2669,17 +2670,17 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>211</v>
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
       </c>
       <c r="E66">
         <v>45.71</v>
@@ -2689,17 +2690,17 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>215</v>
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
       </c>
       <c r="E67">
         <v>45.52</v>
@@ -2709,17 +2710,17 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>44</v>
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
       </c>
       <c r="E68">
         <v>45.17</v>
@@ -2729,17 +2730,17 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>111</v>
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
       </c>
       <c r="E69">
         <v>44.92</v>
@@ -2749,17 +2750,17 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>13</v>
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
       </c>
       <c r="E70">
         <v>44.79</v>
@@ -2769,17 +2770,17 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>65</v>
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
       </c>
       <c r="E71">
         <v>44.63</v>
@@ -2789,17 +2790,17 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>17</v>
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
       </c>
       <c r="E72">
         <v>44.62</v>
@@ -2809,17 +2810,17 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>17</v>
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
       </c>
       <c r="E73">
         <v>44.38</v>
@@ -2829,17 +2830,17 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
       </c>
       <c r="E74">
         <v>44.16</v>
@@ -2849,17 +2850,17 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>13</v>
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
       </c>
       <c r="E75">
         <v>44.02</v>
@@ -2869,17 +2870,17 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>104</v>
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
       </c>
       <c r="E76">
         <v>43.83</v>
@@ -2889,17 +2890,17 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>40</v>
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
       </c>
       <c r="E77">
         <v>42.77</v>
@@ -2909,17 +2910,17 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>150</v>
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
       </c>
       <c r="E78">
         <v>42.76</v>
@@ -2929,17 +2930,17 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>65</v>
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
       </c>
       <c r="E79">
         <v>42.56</v>
@@ -2949,17 +2950,17 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>13</v>
+      <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
       </c>
       <c r="E80">
         <v>42.14</v>
@@ -2969,17 +2970,17 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>252</v>
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>172</v>
       </c>
       <c r="E81">
         <v>41.92</v>
@@ -2989,17 +2990,17 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>44</v>
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
       </c>
       <c r="E82">
         <v>41.91</v>
@@ -3009,17 +3010,17 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>65</v>
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
       </c>
       <c r="E83">
         <v>41.79</v>
@@ -3029,17 +3030,17 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>44</v>
+      <c r="A84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
       </c>
       <c r="E84">
         <v>41.71</v>
@@ -3049,17 +3050,17 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
         <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E85">
         <v>41.35</v>
@@ -3069,17 +3070,17 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>9</v>
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
       </c>
       <c r="E86">
         <v>41.1</v>
@@ -3089,17 +3090,17 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>9</v>
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
       </c>
       <c r="E87">
         <v>41.06</v>
@@ -3109,17 +3110,17 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>269</v>
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
       </c>
       <c r="E88">
         <v>41.05</v>
@@ -3129,17 +3130,17 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>273</v>
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
       </c>
       <c r="E89">
         <v>40.78</v>
@@ -3149,17 +3150,17 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>44</v>
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
       </c>
       <c r="E90">
         <v>40.729999999999997</v>
@@ -3169,17 +3170,17 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>57</v>
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
+        <v>43</v>
       </c>
       <c r="E91">
         <v>40.71</v>
@@ -3189,17 +3190,17 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>40</v>
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
       </c>
       <c r="E92">
         <v>40.69</v>
@@ -3209,17 +3210,17 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>269</v>
+      <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" t="s">
+        <v>182</v>
       </c>
       <c r="E93">
         <v>40.58</v>
@@ -3229,17 +3230,17 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>21</v>
+      <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
       </c>
       <c r="E94">
         <v>40.53</v>
@@ -3249,17 +3250,17 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>21</v>
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
       </c>
       <c r="E95">
         <v>40.5</v>
@@ -3269,17 +3270,17 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
         <v>8</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E96">
         <v>40.47</v>
@@ -3289,17 +3290,17 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>169</v>
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
       </c>
       <c r="E97">
         <v>40.33</v>
@@ -3309,17 +3310,17 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>44</v>
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" t="s">
+        <v>34</v>
       </c>
       <c r="E98">
         <v>40.24</v>
@@ -3329,17 +3330,17 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>61</v>
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" t="s">
+        <v>46</v>
       </c>
       <c r="E99">
         <v>40.19</v>
@@ -3349,17 +3350,17 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>150</v>
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
       </c>
       <c r="E100">
         <v>40.159999999999997</v>
@@ -3369,17 +3370,17 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>44</v>
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
       </c>
       <c r="E101">
         <v>40.14</v>
